--- a/inst/extdata/DARWIN_CORE_HERBARIUM_RECORDS.xlsx
+++ b/inst/extdata/DARWIN_CORE_HERBARIUM_RECORDS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="20385" windowHeight="8385" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <t>GLOBAL_UNIQUE_IDENTIFIER</t>
   </si>
@@ -56,6 +56,9 @@
     <t>FAMILY</t>
   </si>
   <si>
+    <t>FAMILYCN</t>
+  </si>
+  <si>
     <t>GENUS</t>
   </si>
   <si>
@@ -173,72 +176,116 @@
     <t>Kadoorie Farm and Botanic Garden Herbarium (KFBG)</t>
   </si>
   <si>
+    <r>
+      <t>Jin-Long Zhang (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张金龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>JL0019</t>
+  </si>
+  <si>
+    <t>2014-8-13</t>
+  </si>
+  <si>
+    <t>华润楠</t>
+  </si>
+  <si>
+    <t>POSIDONIACEAE</t>
+  </si>
+  <si>
+    <t>Zyzyxia</t>
+  </si>
+  <si>
+    <t>candida</t>
+  </si>
+  <si>
+    <t>(Dennst.) Prain.</t>
+  </si>
+  <si>
+    <t>HONG KONG</t>
+  </si>
+  <si>
+    <t>New Territories</t>
+  </si>
+  <si>
+    <t>Sai Kung District</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Yung Shue O (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>榕树澳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>FLORA OF CHINA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Liana.</t>
+  </si>
+  <si>
+    <t>in dense forest.</t>
+  </si>
+  <si>
+    <t>CABINET_1_1</t>
+  </si>
+  <si>
+    <t>in herbarium</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
     <t>Jin-Long Zhang</t>
   </si>
   <si>
-    <t>JL0019</t>
-  </si>
-  <si>
-    <t>2014-8-13</t>
-  </si>
-  <si>
-    <t>华润楠</t>
-  </si>
-  <si>
-    <t>POSIDONIACEAE</t>
-  </si>
-  <si>
-    <t>Zyzyxia</t>
-  </si>
-  <si>
-    <t>candida</t>
-  </si>
-  <si>
-    <t>(Dennst.) Prain.</t>
-  </si>
-  <si>
-    <t>HONG KONG</t>
-  </si>
-  <si>
-    <t>New Territories</t>
-  </si>
-  <si>
-    <t>Sai Kung District</t>
-  </si>
-  <si>
-    <t>Yung Shue O</t>
-  </si>
-  <si>
-    <t>FLORA OF CHINA</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Liana.</t>
-  </si>
-  <si>
-    <t>in dense forest.</t>
-  </si>
-  <si>
-    <t>CABINET_1_1</t>
-  </si>
-  <si>
-    <t>in herbarium</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>50m</t>
-  </si>
-  <si>
     <t>2015-02-04</t>
   </si>
   <si>
@@ -260,6 +307,27 @@
     <t>(R. Br.) Miq.</t>
   </si>
   <si>
+    <r>
+      <t>Yung Shue O (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港新界西贡榕树澳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>herb, 10-15cm.</t>
   </si>
   <si>
@@ -275,10 +343,65 @@
     <t>JL0021</t>
   </si>
   <si>
+    <r>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
     <t>榄李</t>
   </si>
   <si>
-    <t>COMBRETACEAE</t>
+    <r>
+      <t xml:space="preserve">COMBRETACEAE  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使君子科</t>
+    </r>
   </si>
   <si>
     <t>Lumnitzera</t>
@@ -296,91 +419,104 @@
     <t>CABINET_1_16</t>
   </si>
   <si>
+    <t>嘉道理农场暨植物园植物标本室</t>
+  </si>
+  <si>
     <t>JL0022</t>
   </si>
   <si>
+    <t>翅果蓼属</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PASSIFLORACEAE  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西番莲科</t>
+    </r>
+  </si>
+  <si>
+    <t>Cyclobalanosis</t>
+  </si>
+  <si>
+    <t>neglecta</t>
+  </si>
+  <si>
+    <t>L.</t>
+  </si>
+  <si>
+    <t>liana, yellowish when ripe.</t>
+  </si>
+  <si>
+    <t>Grow within the shrubs. Common. Growth with Embelia laeta.</t>
+  </si>
+  <si>
+    <t>CABINET_1_10</t>
+  </si>
+  <si>
+    <t>vegetative</t>
+  </si>
+  <si>
+    <t>JL0023</t>
+  </si>
+  <si>
+    <t>翅果蓼屬</t>
+  </si>
+  <si>
+    <t>POACEAE</t>
+  </si>
+  <si>
+    <t>Poa</t>
+  </si>
+  <si>
+    <t>koenigii</t>
+  </si>
+  <si>
+    <t>(Retz.) P. Beauv.</t>
+  </si>
+  <si>
+    <t>FLORA OF HONG KONG</t>
+  </si>
+  <si>
+    <t>Herb, 40 to 60 cm tall, Spike with white hairs.</t>
+  </si>
+  <si>
+    <t>In steppe, open area.</t>
+  </si>
+  <si>
+    <t>JL0024</t>
+  </si>
+  <si>
+    <t>翅果蓼</t>
+  </si>
+  <si>
+    <t>COMPOSITAE</t>
+  </si>
+  <si>
+    <t>Pluchea</t>
+  </si>
+  <si>
+    <t>sp.</t>
+  </si>
+  <si>
+    <t>herb, 50 - 70 cm tall. flowers purple.</t>
+  </si>
+  <si>
+    <t>On the sea shore, open, salty soil.</t>
+  </si>
+  <si>
+    <t>CABINET_1_15</t>
+  </si>
+  <si>
+    <t>JL0025</t>
+  </si>
+  <si>
     <t>2014-8-15</t>
-  </si>
-  <si>
-    <t>翅果蓼属</t>
-  </si>
-  <si>
-    <t>PASSIFLORACEAE</t>
-  </si>
-  <si>
-    <t>Cyclobalanosis</t>
-  </si>
-  <si>
-    <t>neglecta</t>
-  </si>
-  <si>
-    <t>L.</t>
-  </si>
-  <si>
-    <t>liana, yellowish when ripe.</t>
-  </si>
-  <si>
-    <t>Grow within the shrubs. Common. Growth with Embelia laeta.</t>
-  </si>
-  <si>
-    <t>CABINET_1_10</t>
-  </si>
-  <si>
-    <t>vegetative</t>
-  </si>
-  <si>
-    <t>JL0023</t>
-  </si>
-  <si>
-    <t>翅果蓼屬</t>
-  </si>
-  <si>
-    <t>POACEAE</t>
-  </si>
-  <si>
-    <t>Poa</t>
-  </si>
-  <si>
-    <t>koenigii</t>
-  </si>
-  <si>
-    <t>(Retz.) P. Beauv.</t>
-  </si>
-  <si>
-    <t>FLORA OF HONG KONG</t>
-  </si>
-  <si>
-    <t>Herb, 40 to 60 cm tall, Spike with white hairs.</t>
-  </si>
-  <si>
-    <t>In steppe, open area.</t>
-  </si>
-  <si>
-    <t>JL0024</t>
-  </si>
-  <si>
-    <t>翅果蓼</t>
-  </si>
-  <si>
-    <t>COMPOSITAE</t>
-  </si>
-  <si>
-    <t>Pluchea</t>
-  </si>
-  <si>
-    <t>sp.</t>
-  </si>
-  <si>
-    <t>herb, 50 - 70 cm tall. flowers purple.</t>
-  </si>
-  <si>
-    <t>On the sea shore, open, salty soil.</t>
-  </si>
-  <si>
-    <t>CABINET_1_15</t>
-  </si>
-  <si>
-    <t>JL0025</t>
   </si>
   <si>
     <t>多瓣核果茶属</t>
@@ -552,144 +688,989 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AV13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AW13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3:F13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4:X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="9.21428571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.55612244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.2142857142857"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="9.21428571428571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="30.4438775510204"/>
-    <col collapsed="false" hidden="false" max="43" min="17" style="0" width="9.21428571428571"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.55612244897959"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="9.21428571428571"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="14.1122448979592"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="9.55612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="9.21428571428571"/>
+    <col min="1" max="10" width="9.21904761904762"/>
+    <col min="11" max="11" width="9.55238095238095"/>
+    <col min="12" max="12" width="17.2095238095238"/>
+    <col min="13" max="13" width="17.7142857142857" customWidth="1"/>
+    <col min="14" max="14" width="10.5714285714286" customWidth="1"/>
+    <col min="15" max="16" width="9.21904761904762"/>
+    <col min="17" max="17" width="30.447619047619"/>
+    <col min="18" max="44" width="9.21904761904762"/>
+    <col min="45" max="45" width="16.3333333333333"/>
+    <col min="46" max="46" width="9.55238095238095"/>
+    <col min="47" max="47" width="9.21904761904762"/>
+    <col min="48" max="48" width="14.1142857142857"/>
+    <col min="49" max="49" width="9.55238095238095"/>
+    <col min="50" max="1026" width="9.21904761904762"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,48 +1815,49 @@
       <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:49">
       <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1">
         <v>5366</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -887,38 +1869,38 @@
       <c r="W2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AA2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="1">
         <v>22</v>
       </c>
-      <c r="AB2" s="1" t="n">
+      <c r="AC2" s="1">
         <v>25</v>
       </c>
-      <c r="AC2" s="1" t="n">
+      <c r="AD2" s="1">
         <v>45</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" s="1" t="n">
+      <c r="AE2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="1">
         <v>114</v>
       </c>
-      <c r="AF2" s="1" t="n">
+      <c r="AG2" s="1">
         <v>17</v>
       </c>
-      <c r="AG2" s="1" t="n">
+      <c r="AH2" s="1">
         <v>11</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" s="1">
         <v>2</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>68</v>
@@ -938,61 +1920,62 @@
       <c r="AP2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:49">
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5367</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>5367</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>60</v>
+      <c r="P3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>61</v>
@@ -1003,47 +1986,47 @@
       <c r="W3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" s="1" t="n">
+      <c r="X3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="1">
         <v>22</v>
       </c>
-      <c r="AB3" s="1" t="n">
+      <c r="AC3" s="1">
         <v>25</v>
       </c>
-      <c r="AC3" s="1" t="n">
+      <c r="AD3" s="1">
         <v>36</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE3" s="1" t="n">
+      <c r="AE3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="1">
         <v>114</v>
       </c>
-      <c r="AF3" s="1" t="n">
+      <c r="AG3" s="1">
         <v>17</v>
       </c>
-      <c r="AG3" s="1" t="n">
+      <c r="AH3" s="1">
         <v>16</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AI3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ3" s="1">
         <v>1</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AK3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>71</v>
@@ -1054,58 +2037,59 @@
       <c r="AP3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:49">
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5368</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>5368</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>61</v>
@@ -1116,47 +2100,47 @@
       <c r="W4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" s="1" t="n">
+      <c r="X4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="1">
         <v>22</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AC4" s="1">
         <v>25</v>
       </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AD4" s="1">
         <v>35</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AE4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="1">
         <v>114</v>
       </c>
-      <c r="AF4" s="1" t="n">
+      <c r="AG4" s="1">
         <v>17</v>
       </c>
-      <c r="AG4" s="1" t="n">
+      <c r="AH4" s="1">
         <v>17</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AI4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" s="1">
         <v>1</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="AK4" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="AN4" s="1" t="s">
         <v>71</v>
@@ -1167,61 +2151,62 @@
       <c r="AP4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>52</v>
+      <c r="AQ4" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:49">
       <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1">
         <v>5369</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>61</v>
@@ -1232,47 +2217,47 @@
       <c r="W5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA5" s="1" t="n">
+      <c r="X5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="1">
         <v>22</v>
       </c>
-      <c r="AB5" s="1" t="n">
+      <c r="AC5" s="1">
         <v>25</v>
       </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AD5" s="1">
         <v>45</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AE5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" s="1">
         <v>114</v>
       </c>
-      <c r="AF5" s="1" t="n">
+      <c r="AG5" s="1">
         <v>17</v>
       </c>
-      <c r="AG5" s="1" t="n">
+      <c r="AH5" s="1">
         <v>19</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI5" s="1" t="n">
+      <c r="AI5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ5" s="1">
         <v>1</v>
       </c>
-      <c r="AJ5" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="AK5" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>71</v>
@@ -1283,61 +2268,62 @@
       <c r="AP5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR5" s="1" t="s">
-        <v>52</v>
+      <c r="AQ5" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:49">
       <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1">
         <v>5370</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>60</v>
+        <v>111</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>61</v>
@@ -1348,47 +2334,47 @@
       <c r="W6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA6" s="1" t="n">
+      <c r="X6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB6" s="1">
         <v>22</v>
       </c>
-      <c r="AB6" s="1" t="n">
+      <c r="AC6" s="1">
         <v>25</v>
       </c>
-      <c r="AC6" s="1" t="n">
+      <c r="AD6" s="1">
         <v>43</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE6" s="1" t="n">
+      <c r="AE6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF6" s="1">
         <v>114</v>
       </c>
-      <c r="AF6" s="1" t="n">
+      <c r="AG6" s="1">
         <v>17</v>
       </c>
-      <c r="AG6" s="1" t="n">
+      <c r="AH6" s="1">
         <v>23</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI6" s="1" t="n">
+      <c r="AI6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ6" s="1">
         <v>1</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="AK6" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>71</v>
@@ -1399,58 +2385,59 @@
       <c r="AP6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>52</v>
+      <c r="AQ6" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:49">
       <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1">
         <v>5371</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>61</v>
@@ -1461,47 +2448,47 @@
       <c r="W7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA7" s="1" t="n">
+      <c r="X7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB7" s="1">
         <v>22</v>
       </c>
-      <c r="AB7" s="1" t="n">
+      <c r="AC7" s="1">
         <v>25</v>
       </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AD7" s="1">
         <v>45</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE7" s="1" t="n">
+      <c r="AE7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF7" s="1">
         <v>114</v>
       </c>
-      <c r="AF7" s="1" t="n">
+      <c r="AG7" s="1">
         <v>17</v>
       </c>
-      <c r="AG7" s="1" t="n">
+      <c r="AH7" s="1">
         <v>19</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI7" s="1" t="n">
+      <c r="AI7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ7" s="1">
         <v>1</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AK7" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>71</v>
@@ -1512,61 +2499,62 @@
       <c r="AP7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:49">
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5372</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>5372</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>60</v>
+        <v>128</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>61</v>
@@ -1577,47 +2565,47 @@
       <c r="W8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA8" s="1" t="n">
+      <c r="X8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB8" s="1">
         <v>22</v>
       </c>
-      <c r="AB8" s="1" t="n">
+      <c r="AC8" s="1">
         <v>25</v>
       </c>
-      <c r="AC8" s="1" t="n">
+      <c r="AD8" s="1">
         <v>45</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE8" s="1" t="n">
+      <c r="AE8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF8" s="1">
         <v>114</v>
       </c>
-      <c r="AF8" s="1" t="n">
+      <c r="AG8" s="1">
         <v>17</v>
       </c>
-      <c r="AG8" s="1" t="n">
+      <c r="AH8" s="1">
         <v>19</v>
       </c>
-      <c r="AH8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI8" s="1" t="n">
+      <c r="AI8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ8" s="1">
         <v>1</v>
       </c>
-      <c r="AJ8" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="AK8" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="AN8" s="1" t="s">
         <v>71</v>
@@ -1628,61 +2616,62 @@
       <c r="AP8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:49">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5373</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>5373</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>61</v>
@@ -1693,47 +2682,47 @@
       <c r="W9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA9" s="1" t="n">
+      <c r="X9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB9" s="1">
         <v>22</v>
       </c>
-      <c r="AB9" s="1" t="n">
+      <c r="AC9" s="1">
         <v>25</v>
       </c>
-      <c r="AC9" s="1" t="n">
+      <c r="AD9" s="1">
         <v>45</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE9" s="1" t="n">
+      <c r="AE9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF9" s="1">
         <v>114</v>
       </c>
-      <c r="AF9" s="1" t="n">
+      <c r="AG9" s="1">
         <v>17</v>
       </c>
-      <c r="AG9" s="1" t="n">
+      <c r="AH9" s="1">
         <v>19</v>
       </c>
-      <c r="AH9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AI9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ9" s="1">
         <v>1</v>
       </c>
-      <c r="AJ9" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="AK9" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="AN9" s="1" t="s">
         <v>71</v>
@@ -1744,61 +2733,62 @@
       <c r="AP9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:49">
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5374</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>5374</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>60</v>
+        <v>147</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>61</v>
@@ -1809,47 +2799,47 @@
       <c r="W10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA10" s="1" t="n">
+      <c r="X10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB10" s="1">
         <v>22</v>
       </c>
-      <c r="AB10" s="1" t="n">
+      <c r="AC10" s="1">
         <v>25</v>
       </c>
-      <c r="AC10" s="1" t="n">
+      <c r="AD10" s="1">
         <v>45</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE10" s="1" t="n">
+      <c r="AE10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF10" s="1">
         <v>114</v>
       </c>
-      <c r="AF10" s="1" t="n">
+      <c r="AG10" s="1">
         <v>17</v>
       </c>
-      <c r="AG10" s="1" t="n">
+      <c r="AH10" s="1">
         <v>19</v>
       </c>
-      <c r="AH10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI10" s="1" t="n">
+      <c r="AI10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ10" s="1">
         <v>1</v>
       </c>
-      <c r="AJ10" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="AK10" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>71</v>
@@ -1860,61 +2850,62 @@
       <c r="AP10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR10" s="1" t="s">
+      <c r="AQ10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:49">
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5375</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>5375</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>60</v>
+        <v>156</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>61</v>
@@ -1925,47 +2916,47 @@
       <c r="W11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA11" s="1" t="n">
+      <c r="X11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB11" s="1">
         <v>22</v>
       </c>
-      <c r="AB11" s="1" t="n">
+      <c r="AC11" s="1">
         <v>25</v>
       </c>
-      <c r="AC11" s="1" t="n">
+      <c r="AD11" s="1">
         <v>45</v>
       </c>
-      <c r="AD11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE11" s="1" t="n">
+      <c r="AE11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF11" s="1">
         <v>114</v>
       </c>
-      <c r="AF11" s="1" t="n">
+      <c r="AG11" s="1">
         <v>17</v>
       </c>
-      <c r="AG11" s="1" t="n">
+      <c r="AH11" s="1">
         <v>19</v>
       </c>
-      <c r="AH11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AI11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ11" s="1">
         <v>1</v>
       </c>
-      <c r="AJ11" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="AK11" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="AN11" s="1" t="s">
         <v>71</v>
@@ -1976,70 +2967,71 @@
       <c r="AP11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR11" s="1" t="s">
+      <c r="AQ11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:49">
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5376</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>5376</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="S12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>60</v>
+      <c r="P12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>61</v>
@@ -2050,47 +3042,47 @@
       <c r="W12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA12" s="1" t="n">
+      <c r="X12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB12" s="1">
         <v>22</v>
       </c>
-      <c r="AB12" s="1" t="n">
+      <c r="AC12" s="1">
         <v>25</v>
       </c>
-      <c r="AC12" s="1" t="n">
+      <c r="AD12" s="1">
         <v>45</v>
       </c>
-      <c r="AD12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE12" s="1" t="n">
+      <c r="AE12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF12" s="1">
         <v>114</v>
       </c>
-      <c r="AF12" s="1" t="n">
+      <c r="AG12" s="1">
         <v>17</v>
       </c>
-      <c r="AG12" s="1" t="n">
+      <c r="AH12" s="1">
         <v>19</v>
       </c>
-      <c r="AH12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI12" s="1" t="n">
+      <c r="AI12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>1</v>
       </c>
-      <c r="AJ12" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="AK12" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="AN12" s="1" t="s">
         <v>71</v>
@@ -2101,61 +3093,62 @@
       <c r="AP12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR12" s="1" t="s">
+      <c r="AQ12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:49">
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5377</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>5377</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>60</v>
+        <v>176</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>61</v>
@@ -2166,47 +3159,47 @@
       <c r="W13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA13" s="1" t="n">
+      <c r="X13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB13" s="1">
         <v>22</v>
       </c>
-      <c r="AB13" s="1" t="n">
+      <c r="AC13" s="1">
         <v>25</v>
       </c>
-      <c r="AC13" s="1" t="n">
+      <c r="AD13" s="1">
         <v>45</v>
       </c>
-      <c r="AD13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE13" s="1" t="n">
+      <c r="AE13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF13" s="1">
         <v>114</v>
       </c>
-      <c r="AF13" s="1" t="n">
+      <c r="AG13" s="1">
         <v>17</v>
       </c>
-      <c r="AG13" s="1" t="n">
+      <c r="AH13" s="1">
         <v>19</v>
       </c>
-      <c r="AH13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI13" s="1" t="n">
+      <c r="AI13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ13" s="1">
         <v>1</v>
       </c>
-      <c r="AJ13" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="AK13" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="AN13" s="1" t="s">
         <v>71</v>
@@ -2217,26 +3210,25 @@
       <c r="AP13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR13" s="1" t="s">
-        <v>52</v>
+      <c r="AQ13" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU13" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>